--- a/src/test/resources/userData.xlsx
+++ b/src/test/resources/userData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HakanBatirhan\IdeaProjects\Cucumber_Ders\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan Batirhan.DESKTOP-KA8SOKR\IdeaProjects\Mini_Bootcamp_Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pozitive" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>hakan123.</t>
   </si>
   <si>
-    <t>kefyazadra@gufum.com</t>
-  </si>
-  <si>
     <t>azad123.</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>tomorrow</t>
+  </si>
+  <si>
+    <t>kefydrdra@gufum.com</t>
   </si>
 </sst>
 </file>
@@ -351,8 +351,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -370,10 +370,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -408,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -426,14 +426,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>